--- a/xlsx/c_EffectData.xlsx
+++ b/xlsx/c_EffectData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F643B6-3991-47D2-B875-80CAC6EF65A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E44EA14-AF50-45E9-AB7C-D9CFBCADAEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="1575" windowWidth="21645" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -39,6 +39,26 @@
   </si>
   <si>
     <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害值显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_dmgExp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cacheCount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1269,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1280,11 +1300,11 @@
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="4" max="5" width="14" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1295,8 +1315,11 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -1309,36 +1332,54 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xlsx/c_EffectData.xlsx
+++ b/xlsx/c_EffectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E44EA14-AF50-45E9-AB7C-D9CFBCADAEBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA5BC6-EC64-4B49-8A26-7B5064529325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5025" yWindow="1335" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="1005" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,29 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_eat_normal</t>
+  </si>
+  <si>
+    <t>吃鱼特效（中）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鱼特效（小）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_eat_small</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_eat_big</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃鱼特效（大）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -129,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1292,7 +1316,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1354,25 +1378,55 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>

--- a/xlsx/c_EffectData.xlsx
+++ b/xlsx/c_EffectData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\PrivateWork\MultiGreedyFish\MultiGreedyFish\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CFA5BC6-EC64-4B49-8A26-7B5064529325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24444BF0-D536-4744-80AA-90078E0C5DD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="1005" windowWidth="21615" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32460" yWindow="1680" windowWidth="18705" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>吃鱼特效（大）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻痹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fx_skill_Paralysis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1316,7 +1324,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1429,11 +1437,21 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
